--- a/Documentos/Fichas MSI/Gerente/12 - Listar Clientes.xlsx
+++ b/Documentos/Fichas MSI/Gerente/12 - Listar Clientes.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Candela\Documents\GitHub\RamosHnos\Documentos\Fichas MSI\Gerente\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -776,21 +781,24 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="white">
-                <a:lumMod val="50000"/>
-              </a:prstClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2. Se selecciona el parámetro.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -810,21 +818,24 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="white">
-                <a:lumMod val="50000"/>
-              </a:prstClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2.1 Si es por N° de cliente, se debe ingresar el número del cliente y se muestran los clientes que contienen el número ingresado.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -860,7 +871,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>2. Se selecciona el parámetro.</a:t>
+            <a:t>2.2 Si es por DNI, se debe ingresar el DNI correspondiente al cliente, y se muestra el cliente correspondiente a la búsqueda.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -897,7 +908,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>2.1 Si es por N° de cliente, se debe ingresar el número del cliente y se muestran los clientes que contienen el número ingresado.</a:t>
+            <a:t>2.3 Si es por CUIL/CUIT, se debe ingresar el CUIL/CUIT del cliente requerido, y se muestran el cliente correspondiente a la búsqueda.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -934,7 +945,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>2.2 Si es por DNI, se debe ingresar el DNI correspondiente al cliente, y se muestra el cliente correspondiente a la búsqueda.</a:t>
+            <a:t>2.4 Si es por apellido, se debe ingresar el/los apellido/s del cliente, y se muestran los clientes correspondientes. a la búsqueda.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -971,7 +982,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>2.3 Si es por CUIL/CUIT, se debe ingresar el CUIL/CUIT del cliente requerido, y se muestran el cliente correspondiente a la búsqueda.</a:t>
+            <a:t>2.5 Si es por nombre, se debe ingresar el/los nombre/s del cliente, y se muestran los clientes correspondientes a la búsqueda.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1008,44 +1019,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>2.4 Si es por apellido, se debe ingresar el/los apellido/s del cliente, y se muestran los clientes correspondientes. a la búsqueda.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="white">
-                  <a:lumMod val="50000"/>
-                </a:prstClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2.5 Si es por nombre, se debe ingresar el/los nombre/s del cliente, y se muestran los clientes correspondientes a la búsqueda.</a:t>
+            <a:t>2.6 Si no se desea realizar la búsqueda, se selecciona la opción cancelar</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1430,7 +1404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,7 +1439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1676,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
